--- a/src/1.xlsx
+++ b/src/1.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B22BD9-89B4-4C49-9060-65A2D1311D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <r>
       <t>状</t>
@@ -38,10 +39,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>user</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>admin</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -51,10 +48,6 @@
   </si>
   <si>
     <t>method</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>page</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -65,7 +58,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -75,7 +68,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -124,16 +117,37 @@
 sort:string</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>attachment</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>viewer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>reqBody:{
+  title: string,
+  origin_content: string,
+  categroy:int
+  author: string
+}</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -146,14 +160,14 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -174,7 +188,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -253,23 +267,11 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -282,9 +284,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -561,12 +575,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -574,148 +588,161 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="M12" sqref="M11:M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="8" max="8" width="17.625" customWidth="1"/>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
+    <col min="8" max="8" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="7"/>
+      <c r="B2" s="5"/>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75">
+      <c r="A3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="71.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="6"/>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="H4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="99.75">
+      <c r="A5" s="8"/>
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="11"/>
-      <c r="B2" s="9"/>
-      <c r="D2" t="s">
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="10"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="10"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="8"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="8"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="10"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="10"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="10"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="10"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="10"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="10"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="12"/>
-      <c r="B3" s="10"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" ht="93.75" x14ac:dyDescent="0.4">
-      <c r="A4" s="12"/>
-      <c r="B4" s="10"/>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="H4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="12"/>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="12"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="12"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19" s="3"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A20" s="3"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A21" s="3"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A22" s="3"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="10"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="10"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="10"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="10"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="A17:A22"/>
+  <mergeCells count="5">
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A19:A24"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A6:A8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/1.xlsx
+++ b/src/1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B22BD9-89B4-4C49-9060-65A2D1311D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F597CD5C-427B-40B7-A39F-4B98A9646F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="825" yWindow="1800" windowWidth="18990" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -592,7 +592,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M11:M12"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -650,7 +650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="99.75">
+    <row r="5" spans="1:9" ht="85.5">
       <c r="A5" s="8"/>
       <c r="D5" t="s">
         <v>8</v>
